--- a/Excel/BoxSize_Focus_Dose_EMBL.xlsx
+++ b/Excel/BoxSize_Focus_Dose_EMBL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robmiller/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD_Alpha/Research/Analysis/Code/EM/BoxSize_Prediction/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCB215E-6984-8841-A87F-B6E6C5AAE418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBB9189-079D-AE44-B9B4-642DE811BC3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4160" windowWidth="38400" windowHeight="23540" xr2:uid="{18626F72-702F-B949-A369-8523113190CC}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{18626F72-702F-B949-A369-8523113190CC}"/>
   </bookViews>
   <sheets>
     <sheet name="box size Rosenthal Henderson" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1748,7 +1748,7 @@
         <v>3.2577053944875809E-8</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" ref="E25:E27" si="2">EVEN(D27/$D$6)</f>
+        <f t="shared" ref="E27" si="2">EVEN(D27/$D$6)</f>
         <v>646</v>
       </c>
       <c r="F27" s="8"/>
